--- a/Data Files/Calculate Duty/TypeCode 9.2/Auto_GeStamp_TSCD_TC92.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 9.2/Auto_GeStamp_TSCD_TC92.xlsx
@@ -247,7 +247,7 @@
     <t xml:space="preserve">Auto_A11</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">2023-07-27</t>

--- a/Data Files/Calculate Duty/TypeCode 9.2/Auto_GeStamp_TSCD_TC92.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 9.2/Auto_GeStamp_TSCD_TC92.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 9.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0CEF03-A0E8-4152-A631-C9EE7AF71AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08D0EF0-6170-4551-BD30-1C53B386988F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2904" yWindow="864" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -285,7 +285,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
@@ -654,8 +654,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BQ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>

--- a/Data Files/Calculate Duty/TypeCode 9.2/Auto_GeStamp_TSCD_TC92.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 9.2/Auto_GeStamp_TSCD_TC92.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 9.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08D0EF0-6170-4551-BD30-1C53B386988F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C75352A-7671-4C3B-9E74-E33EF7D37042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2904" yWindow="864" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -285,7 +285,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>
@@ -655,7 +655,7 @@
   <dimension ref="A1:BQ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>

--- a/Data Files/Calculate Duty/TypeCode 9.2/Auto_GeStamp_TSCD_TC92.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 9.2/Auto_GeStamp_TSCD_TC92.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 9.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C75352A-7671-4C3B-9E74-E33EF7D37042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F92970C-B70C-4493-B18D-CBDF6295FA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>issueNumber</t>
   </si>
@@ -654,8 +654,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BQ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -933,9 +933,6 @@
       </c>
     </row>
     <row r="2" spans="1:69">
-      <c r="A2" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="F2" s="1" t="s">
         <v>69</v>
       </c>

--- a/Data Files/Calculate Duty/TypeCode 9.2/Auto_GeStamp_TSCD_TC92.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 9.2/Auto_GeStamp_TSCD_TC92.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 9.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F92970C-B70C-4493-B18D-CBDF6295FA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9658E1F9-0C6C-425D-A459-089AA51C13AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -285,7 +285,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-10-16</t>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -654,8 +654,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BQ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>

--- a/Data Files/Calculate Duty/TypeCode 9.2/Auto_GeStamp_TSCD_TC92.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 9.2/Auto_GeStamp_TSCD_TC92.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 9.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 9.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9658E1F9-0C6C-425D-A459-089AA51C13AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CE2229-67DE-491F-8FBD-44954F2530C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="3225" windowHeight="2925" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -285,7 +285,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -654,73 +654,73 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BQ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="L2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="1" customWidth="1"/>
     <col min="13" max="14" width="11" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="10.33203125" style="1" customWidth="1"/>
-    <col min="20" max="21" width="10.109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="16.6640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="17.33203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="14.109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="19.44140625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="19.109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="19.33203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="20.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="8.88671875" style="1" customWidth="1"/>
-    <col min="32" max="35" width="6.44140625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="4.44140625" style="1" customWidth="1"/>
-    <col min="37" max="40" width="7.109375" style="1" customWidth="1"/>
-    <col min="41" max="41" width="9.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="1" customWidth="1"/>
+    <col min="18" max="19" width="10.28515625" style="1" customWidth="1"/>
+    <col min="20" max="21" width="10.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="17.28515625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="14.140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="19.42578125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="19.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="19.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="20.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="8.85546875" style="1" customWidth="1"/>
+    <col min="32" max="35" width="6.42578125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="4.42578125" style="1" customWidth="1"/>
+    <col min="37" max="40" width="7.140625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="9.42578125" style="1" customWidth="1"/>
     <col min="42" max="42" width="12" style="1" customWidth="1"/>
-    <col min="43" max="43" width="14.88671875" style="1" customWidth="1"/>
-    <col min="44" max="44" width="16.44140625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="17.109375" style="1" customWidth="1"/>
-    <col min="46" max="46" width="19.44140625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="12.109375" style="1" customWidth="1"/>
-    <col min="48" max="48" width="16.6640625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="14.85546875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="16.42578125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="17.140625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="19.42578125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="12.140625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="16.7109375" style="1" customWidth="1"/>
     <col min="49" max="49" width="19" style="1" customWidth="1"/>
-    <col min="50" max="50" width="19.88671875" style="1" customWidth="1"/>
-    <col min="51" max="51" width="21.109375" style="1" customWidth="1"/>
-    <col min="52" max="52" width="12.88671875" style="1" customWidth="1"/>
-    <col min="53" max="53" width="20.33203125" style="1" customWidth="1"/>
-    <col min="54" max="54" width="21.6640625" style="1" customWidth="1"/>
-    <col min="55" max="55" width="24.33203125" style="1" customWidth="1"/>
-    <col min="56" max="56" width="8.33203125" style="1" customWidth="1"/>
-    <col min="57" max="57" width="9.33203125" style="1" customWidth="1"/>
-    <col min="58" max="58" width="6.6640625" style="1" customWidth="1"/>
-    <col min="59" max="59" width="7.88671875" style="1" customWidth="1"/>
-    <col min="60" max="60" width="8.6640625" style="1" customWidth="1"/>
-    <col min="61" max="61" width="11.88671875" style="1" customWidth="1"/>
-    <col min="62" max="62" width="7.44140625" style="1" customWidth="1"/>
+    <col min="50" max="50" width="19.85546875" style="1" customWidth="1"/>
+    <col min="51" max="51" width="21.140625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="12.85546875" style="1" customWidth="1"/>
+    <col min="53" max="53" width="20.28515625" style="1" customWidth="1"/>
+    <col min="54" max="54" width="21.7109375" style="1" customWidth="1"/>
+    <col min="55" max="55" width="24.28515625" style="1" customWidth="1"/>
+    <col min="56" max="56" width="8.28515625" style="1" customWidth="1"/>
+    <col min="57" max="57" width="9.28515625" style="1" customWidth="1"/>
+    <col min="58" max="58" width="6.7109375" style="1" customWidth="1"/>
+    <col min="59" max="59" width="7.85546875" style="1" customWidth="1"/>
+    <col min="60" max="60" width="8.7109375" style="1" customWidth="1"/>
+    <col min="61" max="61" width="11.85546875" style="1" customWidth="1"/>
+    <col min="62" max="62" width="7.42578125" style="1" customWidth="1"/>
     <col min="63" max="63" width="7" style="1" customWidth="1"/>
-    <col min="64" max="64" width="10.33203125" style="1" customWidth="1"/>
-    <col min="65" max="65" width="13.6640625" style="1" customWidth="1"/>
-    <col min="66" max="66" width="4.6640625" style="1" customWidth="1"/>
-    <col min="67" max="67" width="7.6640625" style="1" customWidth="1"/>
+    <col min="64" max="64" width="10.28515625" style="1" customWidth="1"/>
+    <col min="65" max="65" width="13.7109375" style="1" customWidth="1"/>
+    <col min="66" max="66" width="4.7109375" style="1" customWidth="1"/>
+    <col min="67" max="67" width="7.7109375" style="1" customWidth="1"/>
     <col min="68" max="68" width="12" style="1" customWidth="1"/>
-    <col min="69" max="69" width="9.88671875" style="1" customWidth="1"/>
-    <col min="70" max="16384" width="14.44140625" style="1"/>
+    <col min="69" max="69" width="9.85546875" style="1" customWidth="1"/>
+    <col min="70" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69">

--- a/Data Files/Calculate Duty/TypeCode 9.2/Auto_GeStamp_TSCD_TC92.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 9.2/Auto_GeStamp_TSCD_TC92.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 9.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CE2229-67DE-491F-8FBD-44954F2530C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56B9D31-8673-45FF-8C2D-774886028273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="3225" windowHeight="2925" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -285,7 +285,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>
@@ -654,8 +654,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BQ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>

--- a/Data Files/Calculate Duty/TypeCode 9.2/Auto_GeStamp_TSCD_TC92.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 9.2/Auto_GeStamp_TSCD_TC92.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 9.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56B9D31-8673-45FF-8C2D-774886028273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3403E7-3D27-41E4-B24C-34B12140A9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -285,7 +285,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -355,9 +355,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -395,7 +395,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -501,7 +501,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -643,7 +643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Calculate Duty/TypeCode 9.2/Auto_GeStamp_TSCD_TC92.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 9.2/Auto_GeStamp_TSCD_TC92.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 9.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1A3DCD-B0FD-4D3B-89A1-CF8411C99661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC58C76-49CA-4FF5-90AF-4F953E280AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="2505" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -285,7 +285,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -355,9 +355,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -395,7 +395,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -501,7 +501,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -643,7 +643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Calculate Duty/TypeCode 9.2/Auto_GeStamp_TSCD_TC92.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 9.2/Auto_GeStamp_TSCD_TC92.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 9.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC58C76-49CA-4FF5-90AF-4F953E280AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD627C0-FE4F-47D2-BD6A-F69AA65C05E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2505" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
   <si>
     <t>issueNumber</t>
   </si>
@@ -285,7 +285,13 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>เมือง</t>
+  </si>
+  <si>
+    <t>นนทบุรี</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
@@ -654,7 +660,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BQ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -955,7 +961,7 @@
         <v>74</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>75</v>
@@ -1001,6 +1007,12 @@
       </c>
       <c r="BD2" s="1" t="s">
         <v>84</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="BH2" s="1" t="s">
         <v>85</v>

--- a/Data Files/Calculate Duty/TypeCode 9.2/Auto_GeStamp_TSCD_TC92.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 9.2/Auto_GeStamp_TSCD_TC92.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 9.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD627C0-FE4F-47D2-BD6A-F69AA65C05E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F18AC34-16A3-464D-BC61-7E8B4184BDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
     <t>นนทบุรี</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BQ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
